--- a/biology/Zoologie/Cladocora/Cladocora.xlsx
+++ b/biology/Zoologie/Cladocora/Cladocora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cladocora est un genre de scléractiniaires (coraux durs).
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des coraux durs formant de petits récifs principalement encroûtants. Certaines espèces sont équipées de zooxanthelles qui leur permettent de se complémenter en nutriments par photosynthèse, et d'autres sont purement suspensivores. On trouve des espèces de ce genre entre la surface et 480 m de profondeur, dans l'Atlantique et ses environs, et ils sont apparus au Crétacé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des coraux durs formant de petits récifs principalement encroûtants. Certaines espèces sont équipées de zooxanthelles qui leur permettent de se complémenter en nutriments par photosynthèse, et d'autres sont purement suspensivores. On trouve des espèces de ce genre entre la surface et 480 m de profondeur, dans l'Atlantique et ses environs, et ils sont apparus au Crétacé.
 Il est à noter que l'espèce Cladocora caespitosa est quasiment la seule espèce de corail scleractiniaire photosynthétique de Méditerranée.
 </t>
         </is>
@@ -543,16 +557,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (19 juin 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (19 juin 2015) :
 Cladocora arbuscula Lesueur, 1821 — Caraïbes
 Cladocora caespitosa (Linnaeus, 1767) — Méditerranée
 Cladocora debilis Milne Edwards &amp; Haime, 1849 — Caraïbes
 Cladocora pacifica Cairns, 1991 — Pacifique est
 			Cladocora debilis
 			Cladocora caespitosa
-Bien que parfois assigné à la famille des Caryophylliidae, ce genre est actuellement considéré comme de position incertaine au sein de l'arbre phylogénique des coraux durs[2].
+Bien que parfois assigné à la famille des Caryophylliidae, ce genre est actuellement considéré comme de position incertaine au sein de l'arbre phylogénique des coraux durs.
 </t>
         </is>
       </c>
